--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2981.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2981.xlsx
@@ -354,7 +354,7 @@
         <v>2.512947250789228</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.255103043113273</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2981.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2981.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.195957202670601</v>
+        <v>1.734577178955078</v>
       </c>
       <c r="B1">
-        <v>2.512947250789228</v>
+        <v>2.553204774856567</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.693010807037354</v>
       </c>
       <c r="D1">
-        <v>2.255103043113273</v>
+        <v>3.035745620727539</v>
       </c>
       <c r="E1">
-        <v>1.184771604100428</v>
+        <v>3.404922723770142</v>
       </c>
     </row>
   </sheetData>
